--- a/weights/translations_language_countries.xlsx
+++ b/weights/translations_language_countries.xlsx
@@ -15646,7 +15646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="859" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A859" s="1">
         <v>851</v>
       </c>
@@ -15663,7 +15663,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="860" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A860" s="1">
         <v>866</v>
       </c>
@@ -15680,7 +15680,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="861" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A861" s="1">
         <v>871</v>
       </c>
@@ -15697,7 +15697,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="862" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A862" s="1">
         <v>902</v>
       </c>
@@ -15714,7 +15714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="863" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A863" s="1">
         <v>925</v>
       </c>
@@ -15731,7 +15731,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="864" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A864" s="1">
         <v>949</v>
       </c>
@@ -15748,7 +15748,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="865" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A865" s="1">
         <v>963</v>
       </c>
@@ -15765,7 +15765,7 @@
         <v>1.333333333333333</v>
       </c>
     </row>
-    <row r="866" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A866" s="1">
         <v>1020</v>
       </c>
@@ -15782,7 +15782,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="867" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A867" s="1">
         <v>1101</v>
       </c>
@@ -15799,7 +15799,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="868" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A868" s="1">
         <v>1121</v>
       </c>
@@ -15816,7 +15816,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="869" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A869" s="1">
         <v>1170</v>
       </c>
@@ -21069,7 +21069,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="1178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1178" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1178" s="1">
         <v>562</v>
       </c>
@@ -21086,7 +21086,7 @@
         <v>465.91746031746021</v>
       </c>
     </row>
-    <row r="1179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1179" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1179" s="1">
         <v>622</v>
       </c>
@@ -21103,7 +21103,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="1180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1180" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1180" s="1">
         <v>641</v>
       </c>
@@ -21120,7 +21120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1181" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1181" s="1">
         <v>649</v>
       </c>
@@ -21137,7 +21137,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1182" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1182" s="1">
         <v>653</v>
       </c>
@@ -21154,7 +21154,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1183" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1183" s="1">
         <v>687</v>
       </c>
@@ -21171,7 +21171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1184" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1184" s="1">
         <v>714</v>
       </c>
@@ -21188,7 +21188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1185" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1185" s="1">
         <v>730</v>
       </c>
@@ -22019,12 +22019,7 @@
   <autoFilter ref="A1:E1233">
     <filterColumn colId="1">
       <filters>
-        <filter val="West Germany"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="3">
-      <filters>
-        <filter val="1978"/>
+        <filter val="Slovakia"/>
       </filters>
     </filterColumn>
     <sortState ref="A2:E1233">
